--- a/vader_output.xlsx
+++ b/vader_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,686 +463,381 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Well, we did call that bottom in October, and we thought it would be a substantial rally. 15, 20%, we got that rally, and then we decided, well, the risk reward is no longer attractive. And so we backed off of that and we said we'd probably go down and retest those lows at a minimum and probably take it out, which is really based on our fundamental view that the earnings recession is now in place. People acknowledge that, but I think there's a very wide range of how deep that earnings recession is going to be with us kind of on the deeper end of that range. Now, this past weekend, we looked at the chart. We have to be objective about what we see. We're technicians in addition to fundamental strategists. And we looked at the price action last week, and we actually talked about it in the week, the week before. We said, look, we're going to probably test this level. If it holds, it'll be a constructive marker, at least in the short term, and that's how we're viewing it. I don't think it changes our intermediate term view that the risk reward is still pretty lousy at 4100 because of that earnings recession view that we have on the fundamental side.</t>
+          <t>But the main takeaway for me is, yes, we could talk about terminal rate estimates and the pace of hikes, but what I'm hearing is just more data dependence. And myopic data dependence can always be dangerous, but is particularly problematic in an environment where we have weather distortions, seasonal adjustment distortions, low survey responses. We are in data that is really having trouble sending us a clear signal, at least over the long term. And I'm concerned that we're going to see markets that are overreacting to data points that have false decision, and potentially even a central bank that's moving too quickly and making big policy changes, even via communication off of data that I think is going to be very bumpy in the next three to six months.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828</v>
+        <v>0.847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.082</v>
+        <v>0.048</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4425</v>
+        <v>-0.8445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>October we were trading 3500. Valuations were 15, 20% lower, interest rates, you know, were higher, we felt like they were going to come down. So we had a lot of catalysts, China reopening. There were a lot of reasons to believe that that was a very tradable low, not just for trader types, but for people who were running real capital. And it turned out to be the case. One thing I will say to you all, however, is that we're pretty confident that between now and the next earning season, which isn't that far away, that will be when we think the next fair market kind of decline happens. Maybe like a more meaningful decline, 10% plus.</t>
+          <t>I think the Fed may not be focused on specifically some of those traditional inflation measures, but that rise we've seen in inflation expectations and market based measures, that's what's keeping me up at night. That is moving in the wrong direction now. It's countered by inflation expectations among consumers that are still going lower. And I'm hoping that the Fed is focusing on those long term inflation expectations, which are coming down quite a bit. Exactly. One of my bigger concerns is this summer we're probably going to lose some of the disinflation momentum that's largely going to be base effects. So this downward momentum that we've seen is probably going to stall. That's when we're going to start hearing those words like stagflation come back. And if we haven't seen some slowdown in jobs by then, a Fed that's going to stay hawkish through the summer</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.025</v>
+        <v>0.09</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806</v>
+        <v>0.867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.168</v>
+        <v>0.044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.962</v>
+        <v>-0.7463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The economic data has been better. China's reopening is kind of just getting going and they've kind of held back. They could gather some steam. I think people came into this year feeling as if the recession was inevitable and that no longer is the case. It's probably 30-40% chance and that can keep animal spirits alive.</t>
+          <t>The only way we're going to walk back this pricing for the March meeting is what we see in the jobs data in the next few days. And when I say jobs data, I mean we've got jobless claims, we've got job openings, we've got Challenger, ADP, NFP. It's a veritable buffet of jobs data that's going to be coming through, and no one number is going to be, I think, more important than the sum of those stories, especially in an environment where we're really trying to dig deeper. We got to look at private sector jobs data right now, people looking at job postings on things like LinkedIn and Indeed, if you want to understand what the Fed is going to be doing a year or two years from now, which I think is even more important than the March meeting, you got to be looking at all of the data available and really making sure that you understand the comprehensive story behind it.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.078</v>
+        <v>0.013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.781</v>
+        <v>0.896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.141</v>
+        <v>0.091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4588</v>
+        <v>0.8467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>We've talked about the liquidity picture from outside the US. So the Feds doing their job, trying to tighten financial conditions. The problem for them is that we have the bank of Japan and we have the PBOC adding liquidity, and you have a dollar that's kind of softening up, which is kind of neutralizing the Fed's goals of tightening financial conditions, and that's also kind of breathed some life into risk assets.</t>
+          <t>But there is a lot of short termism in this industry and financial media, when you're an economist, you're always looking for what is the next big story, and I don't want to miss that inflection point. But problematically, we have a lot of data that's moving two steps forward, one steps back, and it's getting dangerous to extrapolate too far in the future. We have portfolios that are trading tactically, and they need to be moving off of that. But if you're a longer term investor, a lot of this is noise that's distracting from the signal. You need to be focusing twelve to 18 months, or even in some cases, we have to produce five year forecasts to tell us where our strategic portfolio should be positioned over the very long term. And so some of this focus on the Fed moving back and forth in a month to month basis. It's not valuable to investors, and sometimes it can actually be distracting, in some cases even dangerous.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.064</v>
+        <v>0.125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.914</v>
+        <v>0.866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.023</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4767</v>
+        <v>-0.9678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ultimately, we think valuations and the fundamentals meaning earnings, will determine where stock prices trade. That set up is not particularly great, particularly to move higher in rates this year.</t>
+          <t>I'm not sure the market is getting the economy wrong, again, it depends on your time frame. So Q1 is certainly much stronger than many people expected. That consumer is holding in strong. But the challenge comes back to and I've heard a lot of your guests talk about this, where are we going to be down the road? And it is very difficult to discount the probability of a recession twelve to 18 months from now. So if we're talking about the next three months, sure, there's no problem in saying this economy is stronger than we expected in November and December. But if you want to argue for no recession, you have to discount almost every single leading indicator that has very reliably predicted a recession later in the year or twelve to 18 months. You can try to do that. We have a very different labor market. We have excess savings, but from my view, it's a very hard sell. One thing you can say is that the leads and lags in this economy may be different than what we've previously expected, but I would just really focus on your timelines. Are you talking about the economy in the next three months solid, or are you talking about the 18 month outlook? I think a lot of strategists, including myself, need to work on really being clear about their timelines for their forecast</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.108</v>
+        <v>0.147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.892</v>
+        <v>0.786</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.544</v>
+        <v>-0.9715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>For the asset owner crowd, we've been pretty adamant. We felt like the fall was a really good entry point where people had a longer time horizon, and if you added risk there, you probably just stay with it. The rally in the fall was based on, we think, fundamentals, meaning rates coming down, economic data getting better because of China, globally at least, and that would help the kind of cyclical type areas of the market.</t>
+          <t>And I think that's actually the game is what does the economy look like twelve to 18 months from now? Actually, I'm concerned about that. I think it's going to look a little more stagflationary than we'd be comfortable with. I'm less concerned about a technical recession. We know the playbook to trade recessions. We know what those look like historically. I'm more concerned about 18 months from now. We've been in a very slow growth environment for a pretty extended period of time, and we have inflation stuck around 3% to 4%, and problematically inflation that's rested in the system that's still there is likely to be less interest rate sensitive than the inflation that we've managed to kind of dissipate over this period of time. So this word stagflation, there's lots of ways to define it. There's lots of ways people can talk about it. I think that's going to be more of a theme for us moving forward than we thought it was going to be even just a few months ago.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.024</v>
+        <v>0.043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.781</v>
+        <v>0.863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195</v>
+        <v>0.094</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9312</v>
+        <v>0.8514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I do think people that are getting a bit carried away on what they've been buying. We had this more speculative rally that started in January, kind of buying last year's losers, which was all the growth stocks and the meme stocks, and those have just gotten out of control again, particularly in the context of higher rates.</t>
+          <t>So if you think about the way that Powell has been communicating about getting restrictive, right. There's three dimensions to that. There's the pace, there's the level, and then there's the duration. And what Powell has been doing for months now is saying, okay, we've hiked a lot and so don't worry about the pace so much. It's about the level that we get to and the duration at which we stay at that restrictive level. Yesterday, he essentially threw that out the window. That is confusing. And I think the key takeaway is that if we are going to consider reaccelerating to 50 based on the data and they are very data dependent, the risk of a hard landing does go up in that scenario and the yield curve is telling you as much what we saw yesterday twelve basis points higher on the two year flat on the ten year break evens narrower the yield curve twos tens getting to -100 that is the risk of overtightening that the bond market is picking up on. And that's also why you're seeing very sticky resistance on tens at 4%, which is something we've been watching and saying, yeah, people are interested at bonds even in this repricing. The yields are there and the diversification benefits are going to become even more important if the Fed is going towards that hard landing scenario.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.056</v>
+        <v>0.037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.873</v>
+        <v>0.905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.059</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0276</v>
+        <v>0.7413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>If you have kind of names that you want to own, if you want to underwrite through what we think is going to be a difficult time for earnings, and you say, look, I think there's value in this security for the next three years, great. You should just own those through that period.</t>
+          <t>We think that we are getting to levels that are sufficiently restrictive. So last year the thing that I was always quoting was the real Fed funds rate. So saying that the Fed wasn't going to stop hiking until the real Fed funds rate turned positive. So essentially you needed the Fed funds rate to move above the level of inflation. We are making progress on that. If you look at core PCE, it's around 4.6%. The Fed is now expected to get to five, maybe five and a half. That's going to be a significantly positive real Fed funds rate.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.767</v>
+        <v>0.888</v>
       </c>
       <c r="D9" t="n">
-        <v>0.192</v>
+        <v>0.112</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7906</v>
+        <v>0.8976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>However, there's a lot of stuff that's gotten dragged along here that is wildly speculative. Now, in my viewing, it's actually somewhat reckless. And that's the stuff that you got to be really careful, it's in your portfolio, got to get out of it, because that stuff has gotten revalued in a way that doesn't make much sense to us. I think there's plenty of stocks that are probably going to go bankrupt. Then I would say but overall, the growth of your stuff and even the cyclical names have gone too far now, could have as much as 20% downside. Our valuation work would suggest that even without the earnings recession right. The valuations are kind of out of bounds again.</t>
+          <t>And I think we have to think about the way in which policy impacts the economy. It impacts housing first, then manufacturing, then consumer and labor and it's actually playing out in that traditional way. Housing, home prices have been deflating for six straight months. Business investment is starting to rolling over. Now what's only left is the consumer and the labor market. It just takes time.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.869</v>
+        <v>0.945</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.055</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3487</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>It's a stock picking market with not a great macro backdrop. So that's the challenge.</t>
+          <t>Well, I think that with the yield curve this inverted, you are looking at a rates market that is suggesting the risk of hard landing is rising. Now, where I think the discontinuity is is really more in the spread market. So in credit, so spreads are still on the narrow end of the recent ranges of history. So that's where I would say more of the complacency is. But I think in the rates market itself, I think you are seeing the risk of overtightening playing through within the very inverted yield curve.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.208</v>
+        <v>0.058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.694</v>
+        <v>0.881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.099</v>
+        <v>0.061</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4079</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The bottom line is, when you get a normal interest rate structure, all of a sudden down the income statement matters. I think it's a forgotten metric, which is that your costs sit on your balance sheet until they have to hit the income statement.</t>
+          <t>So we do think that we're in a new regime and the starting point of that new regime was the fact that this is the first hiking cycle in 30 years that the peak of that hiking cycle is higher than the prior one. Right. So we were having higher or lower highs and lower lows for 30 years. That's the bull market of fixed income. We are now going in the opposite direction. So this is a meaningful shift because the next time that the Fed cuts, we don't think it's going to be back to the zero lower bound. So there is some changes that are happening here, but those are slow moving. There are still going to be cyclical shifts in yields throughout our broader structural view that we could be entering into a phase of higher highs and higher lows.</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.043</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.864</v>
+        <v>0.919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.093</v>
+        <v>0.012</v>
       </c>
       <c r="E12" t="n">
-        <v>0.296</v>
+        <v>-0.6391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>We live in this world now where there's sort of almost like hand to mouth guidance, the Fed doing it for the bond market and companies doing it for the stock market. And so it's a process that takes longer than it probably should. And that's what's frustrating, I think, for some investors who are in the weeds on this to where we are. It's like, well, my goodness, it's pretty obvious what's about to happen. Why is the market taking so long to kind of price this? That's just the way it is. That's kind of the way it always is at this stage when you get a significant earnings recession, it just takes longer than you would think to get it priced.</t>
+          <t>We think that inflation structurally is not necessarily going to struggle as much to get to that 2% level. So if you think about pre COVID, but post GFC, it was very hard for the Fed to achieve 2% core PCE. In fact, on average, it was about one and a half percent. So we were missing it to the downside by about 50 basis points all the time. Now I think you can say maybe things have started to shift because of deglobalization, because of other factors, that it will be easier for the Fed to get to that 2%. We're not suggesting a materially higher regime for inflation and rates, but it is one that is shifting over time.\</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.065</v>
+        <v>0.074</v>
       </c>
       <c r="C13" t="n">
-        <v>0.832</v>
+        <v>0.896</v>
       </c>
       <c r="D13" t="n">
-        <v>0.103</v>
+        <v>0.029</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4986</v>
+        <v>-0.5697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The recovery itself was sort of two stage-it was goods first, then services. Normally in a normal recovery, everything comes back at the same time. So you have this sort of rolling recovery and now rolling recession. Tech is in a recession right now, they're losing negative growth. They're laying people off more aggressive in other sectors. And I think the big question for the economy is, does that spill over into the services sector, which is where the employment really lives? That's small, medium businesses and services companies employ a lot more people.</t>
+          <t>So I think the strength of the move in twos yesterday clearly shows that some people were offsides and there are positions that needed to be cleaned out.</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.838</v>
+        <v>0.802</v>
       </c>
       <c r="D14" t="n">
-        <v>0.026</v>
+        <v>0.198</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8804999999999999</v>
+        <v>0.7322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Services will probably get hit later in the year when other businesses are showing weakness and then we're seeing layoffs there, which then people spend less money.</t>
+          <t>Look, I think I think what Powell did yesterday was the right thing to do. The data has been hot and if he didn't put 50 on the table, it then threatens a further loosening of financial conditions which will unanchor inflation expectations. So he had to put it on the table. I actually think it was the right thing to do. But now the problem is he's locked in because if they don't go 50 right, it's been a series of locking in. The Fed talks too much. I have thought that throughout this whole cycle there's too much talking, too much talk of disinflation eight weeks ago, 13 times. But in the end, by putting 50 on the table in the near term, they're almost forced to go through it. I think a 200 number on Friday would do it.</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.097</v>
+        <v>0.063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.903</v>
+        <v>0.926</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4215</v>
+        <v>-0.8157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>This idea of operational efficiency is what the market is paying for. Companies that are showing good inventory controls, labor costs as a percentage of cost of goods sold are smaller, and then capex depreciation is lower. We think the market will continue to pay for companies that are very efficient with their expenses and can get the revenue to the bottom line.</t>
+          <t>Resiliency of stocks is confounding and the question of the year. And to your point, why was Nasdaq leading yesterday? So let's just point out that even after the price action yesterday, stocks were where they were on Thursday. And the disconnect between the bond volatility and what's happening in the stock market is ever widening. This year to date, in 2023, the market has been remarkably resilient, as have credit spreads, as you've just talked about, which is what's holding up the market here. So I think what the market is seeing is that ultimately that 10-year having a hard time over 4% and ultimately the 10-year is going to move lower because a slowdown will be coming. The Fed is going to wind up pushing us into recession.</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.825</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.123</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7089</v>
+        <v>-0.4215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>We do think that a lot of the goods sector stocks in particular, and even the earnings forecast have come down because it's obvious, right, we had a pull forward of demand and so those numbers have been reset.</t>
+          <t>So I do buy the thought that the economy appears to be less sensitive to rate hikes than originally thought. I mean, we are now at 4.50-4.75 in twelve months. With the crisis, with the great knock on effect, we're nowhere. Okay? And I think that surprised a lot of us who've seen other rate cycles here. So that has to do with the fact that most of mortgages are fixed rate at 3%, people are making the spread on a 5% six month treasury. Right? So they're actually making money on this trade. But even if the economy is less resilient, the Fed will probably have to go higher and will eventually work. It's just going to take longer. The data and the real economy continues to be fairly strong. You're seeing weakening in certain parts of the economy, such as housing. Clearly commercial real estate is at risk. That's flashing a warning sign here. But that's really the beginning of it. It just hasn't happened yet. As long as labor is strong and as long as workers are getting wage increases, which they are, you can keep this going further.</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04</v>
+        <v>0.061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.96</v>
+        <v>0.839</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.128</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Calling a recession is very hard because you never know when that light switch is going to go off unemployment, but when it does, it's immediate and there's no lead time. It's just all sudden, it hits you with the earnings picture.</t>
+          <t>So far, cyclicals this year have worked, as have growth, right? And I think that begins to change a little bit. You have to think of this as if the Fed has to go to 6% or even higher. It's not our base case, but you have to start opening your mind to the fact that it could happen. Then you start having to see a recession by the end of the year or even into 2024. The confounding part of this year is that the recession hasn't happened yet. And it's very hard to predict with the strength we see in other sectors, such as the service sector, which continues to hold up the economy. But you have to expect it within, let's say, the next twelve months. And with that you do start asking the question, will cyclicals continue to outperform? And that's really where you have to go with this because the defensive stocks have been terrible this year, right? Health care has been tough, staples have been tough, utilities have been tough and the cyclicals have ripped. So the question is what happens if the recession really starts to be priced in?</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.178</v>
+        <v>0.109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.822</v>
+        <v>0.838</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7181</v>
+        <v>-0.899</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I think that a 50 basis point hike is actually inflammatory or would raise a lot of concerns among markets and also consumers and businesses that the Fed is losing control over inflation, at least the fight over inflation. So I think the Fed is probably going to opt for more 25 basis point hikes, probably three more, maybe even more, greater than that. Maybe we'll get to something close to 6%. It's not really clear, but it's really going to depend upon inflation and also the labor market and whether wages are starting to cool at all.</t>
+          <t xml:space="preserve">I think what's unspoken in this conversation today is the debt ceiling. That could change what the Fed does rather remarkably and rather quickly as well. And the fact that the US. Hasn't had a recession in the third year of a presidential term because it's an election cycle coming up. What happens to the pressure on Powell if we actually get that recession by the end of the year? Can he finish the job? I don't think Powell is Burns yet. The question is, will he be Burns in the future? I think for now, Powell's sticking to the Volcker playbook, and I think he's doing a pretty good job at it. The question is, if we get that recession, if your unemployment rate goes to 3.8% from here, which doesn't feel like a lot, he'll be getting pressure from the right and the left. </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.053</v>
+        <v>0.077</v>
       </c>
       <c r="C19" t="n">
-        <v>0.898</v>
+        <v>0.821</v>
       </c>
       <c r="D19" t="n">
-        <v>0.049</v>
+        <v>0.102</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1396</v>
+        <v>0.5894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>It's interesting, consumers are divided in terms of the present situation. They're saying we're fine. Most of us are working. Many of us who switch jobs are seeing wage increases. We may still have a little bit of spending, a little bit of savings that we can spend. We have credit cards and we're continuing to spend. However, looking at the future, they still say, hey, we do expect a recession at some point. We're concerned about job prospects, we're concerned about the business environment, and we're concerned about our own income. So it's really a mixed picture in terms of how consumers are feeling.</t>
+          <t>Well, I thought he finally stepped into where we knew the Fed was. And the fact that all the headlines actually reported the same chairman, Jay Powell, is really important. And that is they are data dependent. The data and the narrative has shifted. And that does put a half percent on the table. Now, could it change? There's two more key data points coming out before they meet on March 21. But I think it's important that he laid out just how data dependent they are and the willingness to pivot. You got another Powell pivot, and that is that we could get a half percent at this next meeting and that rates are going higher, faster. I think that's very important information to have. It's one that we've been arguing and yes, the data has been out there officially since the Valentine's Day massacre of that inflation number we came out. But the revisions to that were out prior to that, the Friday before it, and we were looking at it going, oh my gosh, this has changed the entire narrative.</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.026</v>
+        <v>0.021</v>
       </c>
       <c r="C20" t="n">
-        <v>0.875</v>
+        <v>0.895</v>
       </c>
       <c r="D20" t="n">
-        <v>0.099</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7184</v>
+        <v>0.8411999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>In the last reading, folks making between $35-75k were the most concerned about the outlook. And indeed, when we look at what consumers are saying they're going to do regarding spending, they're saying they're not going to buy cars or homes and they're even pulling back on expectations for going on vacation. And that's really important because that's a harbinger of what's going to happen in the services sector.</t>
+          <t xml:space="preserve">We certainly could see some cooling, and I think we are seeing some cooling. And I think the ADP data is now the way that they've redone it. And I give a lot of credit to Nela Richardson over at ADP for not making it a forecast of the official payrolls data. It is its own data set, but it still shows that there is a lot of strength in wage gains there. That's terrific for wage earners. But to the extent that we're seeing continued upward pressure on inflation tied to demand, which is tied to the wages people earn, that is a concern for the Fed. And I think that data we know the month of January. Part of the reason ADP's report was so weak was because it is more sensitive to the floods we saw in California. So people who didn't work the whole week didn't show up as much on payrolls in that week. That was the survey week. It was not the same for the national data. If they got paid even a dime that week, they showed up on national payrolls. So I do think we'll see some downside surprises as well as we come off this unseasonably hot January in many ways. But the bottom line is you need the threshold to get us to the Fed feeling like it's actually got inflation under control, and then inflation will not become a more entrenched. Inflation is very, very high. That means their threshold to slow down rate hikes is high right now. </t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="C21" t="n">
-        <v>0.97</v>
+        <v>0.864</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03</v>
+        <v>0.092</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2716</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Consumers certainly did spend a lot of money in January. They were pulling back on consumption late last year. But then there was a big spurt. And really the last shoe to fall is going to be the consumer, especially with respect to purchasing.</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.7405</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Our leading indicators continue to signal recession. Indeed, they say that recession should be happening right about now. But consumers are defying all expectations.</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.4215</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>But certainly when we look at business investment that's already starting to roll over and certainly investment in capex structures and the residential investment environment are all weakening.</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5023</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>But I think that the reality is the ECB have still got the inflation problem to deal with. So everyone over here is well aware that core inflation is coming down, albeit albeit slower than the Fed would like it to be. That's not the case in Europe. Core inflation continues to move higher in Europe. So the ECB, who were behind the curve, who were slower to the party of rate hiking than other central banks, is playing catch up and it feels like they're going to have to have to go a little bit harder</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8847</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>I think Europe has there were big concerns about Europe last summer, the gas problems and the hikes. I mean, the Bundesbank I think at one point was saying Germany could fall 5% GDP and obviously that hasn't transpired. And now you've got an environment when Europe's coming out the other side. The gas tanks are much fuller than was expected come the end of the winter. And people are seeing a really good cycle out of Europe. And again, that goes into the problem the ECB has got to deal with. They've got the growth, but they've also got the inflation and they're going to have to keep going, coming out of the pandemic.</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0507</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Obviously we saw a big correlation last year. Last year it was across fixed income, across equities, everything was going down in price. And I think we are going to see a bit of a difference this year because of the huge repricing that we saw last year in fixed income. And then you've got, as I say, some central banks which are much further ahead.</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.3182</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>I think we're going to have a slower journey or a more smoother journey than we saw last year outside of the European Central Bank. I think the central banks want to slow down the pace of hiking, which is going to bring down market volatility, and then it's going to be a case of later in the year, how high do rates get and then do we have to do some sharp decreases if we do start to see a slowdown.</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0772</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>We did see that concern around spread risk in Europe last year, last summer, when we had these big concerns around a slowdown. And as we've come through that and the slowdown hasn't materialized and economic growth and strength looks better in Europe, people are getting a bit more confidence around Europe. And we've seen that not just in peripheries, we've seen that in credit spreads, high yield spreads, they've basically come back down to pretty much be in line with where the US is trading.</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.9432</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>But I think you've also got a much more joined up Europe than I can really ever remember with the recovery plan in place and the coordination that we've seen across Europe. So it feels that we haven't got that sort of spread risk, the periphery risk that we've seen through previous cycles and that we've all come to know over the last decade or so. And if that goes away, then actually there's some decent yields on offer owning some of these bonds.</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.7335</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>So if you think about what's been the case of Europe over the last decade, negatively yielding bonds, who wanted to invest in Europe, who wanted to buy negatively yielding bonds? Well, that's not the case at the moment. Two year Germany now at 3%, you're getting north of 4% across the Italian curve. You're getting seven, seven and a half percent across the European high yield mix. And that's before you even move into into the dangerous world of equities. So I think there's just a lot of demand that will come back into into fixed income. People who haven't wanted to own European fixed income for a long time.</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.3612</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>So we're still playing for the curve to actually flatten a bit further from here. We think there is still concerns that the central banks around the world maybe have to do a little bit more that's priced. Although the repricing that we've seen over the last few weeks has been very helpful. And then really it's the back end of the curve that gives you that ballast in a portfolio. That's the bit of the curve that will do very well if things go badly and suddenly fixed income yields move higher and the capital gains could come from that part of the can.</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.881</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.705</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>So I think obviously then, you've got to take into account that's obviously the European curve where there must possibly more still going through from an ECB standpoint, I think in the US. And that means that over the next few years that looks like a decent investment. And I think buying bonds definitely more attractive than they were at any point last year. And thankfully, the rally that happened in January has reversed a bit to give us another opportunity to go back into the market.</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9184</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>To me, there's two EMs at the minimum, the frontier economies greatly beleaguered, and another EM of great prosperity. I think EM is extremely diversified right now, and you hit the nail on the head in terms of bifurcating the frontier economies, especially the low single B high yield economies that are facing a lot of stress. Some of them have very large external financing needs. They're having to have IMF programs or other bilateral lines from creditors like the Gulf states and China. And then there is the rest of EM. There is the investment grade portion and the double B portion of the EM asset class. Even there, there is a lot of diversification and differentiation, both in terms of the balance sheet as well as how these economies are coming out of this COVID and growth cycle.</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.871</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.8235</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Unfortunately, I don't think EM is a one size fits all in terms of the framework or model that you need to use. And so really, thinking about asset classes and regions makes a lot of sense right now, as well as countries that perhaps are going to benefit more secularly from the near shoring and structural shifts that are occurring both in the global and macro playing field for EM.</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.7402</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>I think the main investment implication from this is to really think about EM in terms of the various centers of global growth and drivers of global growth. For EM as a whole, this fractionalization that we're seeing much more of from the US and China, trade relations and geopolitics is really going to be a headwind for many countries within the asset class. Slow globalization, as the IMF has coined the term, is not a positive for the EM asset class as a whole. Having said that, there are areas that are going to be growing and perhaps benefiting from this. Countries like Mexico, countries like India, many other smaller emerging markets that perhaps have a niche in particular parts of the supply chain. And so for the EM asset class, I think the investment implication really is to start from the bottom up and really focus on country by country selection in terms of really thinking about the investment opportunities that are out there.</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.944</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Well, I think that looking at the fixed income opportunities in China with the cyclical horizon, we are a bit more cautious given the opportunities elsewhere within the fixed income world as well as within emerging markets. So if you're looking at the level of real rates, really you're getting better opportunities elsewhere, whether it's Brazil or even Mexico. If you're looking at currency plays, perhaps the CNY is not the best play right now, given with outbound tourism. You may see capital outflows resuming. So I think that from an investment perspective, there are more interesting opportunities from a risk adjusted perspective elsewhere within EM.</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.9111</v>
+        <v>0.8976</v>
       </c>
     </row>
   </sheetData>
